--- a/frontend/public/datafiles/orders.xlsx
+++ b/frontend/public/datafiles/orders.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,7 +457,7 @@
         <v>sai@sai.com</v>
       </c>
       <c r="D2" t="str">
-        <v>Processing</v>
+        <v>Delivered</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
         <v xml:space="preserve">Tribute Burger (qty-6) (price-285) (ingredients-beef (1), american cheese (1), burger sauce (1), french mustard (1), pickes (1), onion (1), lettuce (1), prawn-4pc (1), potato (2), pudina (1))
@@ -502,7 +502,7 @@
         <v>121ec0765@gmail.com</v>
       </c>
       <c r="D3" t="str">
-        <v>Pending</v>
+        <v>Cancelled</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
         <v xml:space="preserve">Krabby Patty (qty-8) (price-304) (ingredients-bun (1), patty (1), ketchup (1), mustard (1), pickles (1), onions (1), lettuce (1), cheese (1), tomato (1), prawn-4pc (1), pudina (2), pepper (2))
@@ -536,9 +536,281 @@
         <v>2024-06-14T06:26:31.253Z</v>
       </c>
     </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>666bfa265575893610309717</v>
+      </c>
+      <c r="B4" t="str">
+        <v>66633ef65bcc4a8fe8975da7</v>
+      </c>
+      <c r="C4" t="str">
+        <v>sai@sai.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Processing</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Krabby Patty (qty-7) (price-170) (ingredients-bun (1), patty (1), ketchup (1), mustard (1), pickles (1), onions (1), lettuce (1), cheese (1), tomato (1))
+</v>
+      </c>
+      <c r="F4" t="str">
+        <v>pothu</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Beside Meeseva</v>
+      </c>
+      <c r="H4" t="str">
+        <v>SELECT</v>
+      </c>
+      <c r="I4" t="str">
+        <v>India</v>
+      </c>
+      <c r="J4">
+        <v>533297</v>
+      </c>
+      <c r="K4" t="str">
+        <v>PayPal</v>
+      </c>
+      <c r="L4" t="str">
+        <v>1190.00</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2024-06-14T08:07:02.884Z</v>
+      </c>
+      <c r="N4" t="str">
+        <v>2024-06-14T08:07:02.915Z</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>666c01d02c326265a8b0fdbe</v>
+      </c>
+      <c r="B5" t="str">
+        <v>6665bdcb30d87f3c08f4bae0</v>
+      </c>
+      <c r="C5" t="str">
+        <v>121ec0765@gmail.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Processing</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tribute Burger (qty-5) (price-261) (ingredients-beef (1), american cheese (1), burger sauce (1), french mustard (1), pickes (1), onion (1), lettuce (1), pudina (1), prawn-4pc (1))
+Crunchy Nacho Burger (qty-6) (price-180) (ingredients-sesame bun (1), salsa (1), cheddar (1), nachos (1), beef (1), tomato (3), pickled onion (1), lettuce (1), jalapeño mayonnaise (1))
+</v>
+      </c>
+      <c r="F5" t="str">
+        <v>sai</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Beside Meeseva</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Rajahmundry</v>
+      </c>
+      <c r="I5" t="str">
+        <v>India</v>
+      </c>
+      <c r="J5">
+        <v>533297</v>
+      </c>
+      <c r="K5" t="str">
+        <v>PayPal</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2385.00</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2024-06-14T08:39:44.902Z</v>
+      </c>
+      <c r="N5" t="str">
+        <v>2024-06-14T08:39:44.927Z</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>666c049bdeca5747bc91ca05</v>
+      </c>
+      <c r="B6" t="str">
+        <v>6669727eac6e2588b0e41e0c</v>
+      </c>
+      <c r="C6" t="str">
+        <v>lekha@sai.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Fat Santa (qty-4) (price-180) (ingredients-chicken thigh (1), champagne ham (1), sage and onion stuffing (1), gravy mash (1), lettuce (1), tomato (3), cranberry sauce (1))
+</v>
+      </c>
+      <c r="F6" t="str">
+        <v>6-74,BESIDE MEESEVA</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Beside Meeseva</v>
+      </c>
+      <c r="H6" t="str">
+        <v>SELECT</v>
+      </c>
+      <c r="I6" t="str">
+        <v>India</v>
+      </c>
+      <c r="J6">
+        <v>533297</v>
+      </c>
+      <c r="K6" t="str">
+        <v>PayPal</v>
+      </c>
+      <c r="L6" t="str">
+        <v>720.00</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2024-06-14T08:51:39.230Z</v>
+      </c>
+      <c r="N6" t="str">
+        <v>2024-06-14T08:51:39.245Z</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>666c0686deca5747bc91ca08</v>
+      </c>
+      <c r="B7" t="str">
+        <v>666bb57c0552905c4418351d</v>
+      </c>
+      <c r="C7" t="str">
+        <v>pravi@pravi.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Processing</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Pulled Mooshie-2 (qty-5) (price-206) (ingredients-jackfruit (1), coleslaw (1), gluten free bun (1), ghee (2), pudina (2))
+Tribute Burger (qty-5) (price-273) (ingredients-beef (1), american cheese (1), burger sauce (1), french mustard (1), pickes (1), onion (1), lettuce (1), ghee (2), pudina (1), patty (1))
+</v>
+      </c>
+      <c r="F7" t="str">
+        <v>6-74,BESIDE MEESEVA</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Beside Meeseva</v>
+      </c>
+      <c r="H7" t="str">
+        <v>SELECT</v>
+      </c>
+      <c r="I7" t="str">
+        <v>India</v>
+      </c>
+      <c r="J7">
+        <v>533297</v>
+      </c>
+      <c r="K7" t="str">
+        <v>PayPal</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2395.00</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2024-06-14T08:59:50.021Z</v>
+      </c>
+      <c r="N7" t="str">
+        <v>2024-06-14T08:59:50.031Z</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>666c0d2ca0ce2e39d0226ef3</v>
+      </c>
+      <c r="B8" t="str">
+        <v>666bb5230552905c4418351c</v>
+      </c>
+      <c r="C8" t="str">
+        <v>mohan@mohan.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Processing</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Pulled Mooshie (qty-6) (price-150) (ingredients-jackfruit (1), coleslaw (1), gluten free bun (1), ggg (1), whole-wheat-bun (1), pepper (2))
+</v>
+      </c>
+      <c r="F8" t="str">
+        <v>6-74,BESIDE MEESEVA</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Beside Meeseva</v>
+      </c>
+      <c r="H8" t="str">
+        <v>SELECT</v>
+      </c>
+      <c r="I8" t="str">
+        <v>India</v>
+      </c>
+      <c r="J8">
+        <v>533297</v>
+      </c>
+      <c r="K8" t="str">
+        <v>PayPal</v>
+      </c>
+      <c r="L8" t="str">
+        <v>900.00</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2024-06-14T09:28:12.402Z</v>
+      </c>
+      <c r="N8" t="str">
+        <v>2024-06-14T09:28:12.431Z</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>666c0f26a0ce2e39d0226ef7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>666bb5230552905c4418351c</v>
+      </c>
+      <c r="C9" t="str">
+        <v>mohan@mohan.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Processing</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Pulled Mooshie-2 (qty-3) (price-368) (ingredients-jackfruit (1), coleslaw (1), gluten free bun (1), ggg (1), prawn-4pc (1), ghee (3))
+</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Murari</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Beside Meeseva</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Rajahmundry</v>
+      </c>
+      <c r="I9" t="str">
+        <v>India</v>
+      </c>
+      <c r="J9">
+        <v>533297</v>
+      </c>
+      <c r="K9" t="str">
+        <v>PayPal</v>
+      </c>
+      <c r="L9" t="str">
+        <v>1104.00</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2024-06-14T09:36:38.107Z</v>
+      </c>
+      <c r="N9" t="str">
+        <v>2024-06-14T09:36:38.115Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/frontend/public/datafiles/orders.xlsx
+++ b/frontend/public/datafiles/orders.xlsx
@@ -502,7 +502,7 @@
         <v>121ec0765@gmail.com</v>
       </c>
       <c r="D3" t="str">
-        <v>Cancelled</v>
+        <v>Delivered</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
         <v xml:space="preserve">Krabby Patty (qty-8) (price-304) (ingredients-bun (1), patty (1), ketchup (1), mustard (1), pickles (1), onions (1), lettuce (1), cheese (1), tomato (1), prawn-4pc (1), pudina (2), pepper (2))

--- a/frontend/public/datafiles/orders.xlsx
+++ b/frontend/public/datafiles/orders.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,10 +448,10 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>666be25a499d9b66fcd027b8</v>
+        <v>669e71a3c6f3441470c2974e</v>
       </c>
       <c r="B2" t="str">
-        <v>66633ef65bcc4a8fe8975da7</v>
+        <v>669e70ffc6f3441470c2974c</v>
       </c>
       <c r="C2" t="str">
         <v>sai@sai.com</v>
@@ -460,7 +460,7 @@
         <v>Delivered</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Tribute Burger (qty-6) (price-285) (ingredients-beef (1), american cheese (1), burger sauce (1), french mustard (1), pickes (1), onion (1), lettuce (1), prawn-4pc (1), potato (2), pudina (1))
+        <v xml:space="preserve">Pulled Mooshie (qty-1) (price-140) (ingredients-jackfruit (1), coleslaw (1), gluten free bun (1), onion (2))
 </v>
       </c>
       <c r="F2" t="str">
@@ -482,30 +482,30 @@
         <v>PayPal</v>
       </c>
       <c r="L2" t="str">
-        <v>1710.00</v>
+        <v>140.00</v>
       </c>
       <c r="M2" t="str">
-        <v>2024-06-14T06:25:30.582Z</v>
+        <v>2024-07-22T14:50:11.718Z</v>
       </c>
       <c r="N2" t="str">
-        <v>2024-06-14T06:25:30.594Z</v>
+        <v>2024-07-22T14:50:11.738Z</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>666be297499d9b66fcd027ba</v>
+        <v>66abcbe8c3ea816584cb02e5</v>
       </c>
       <c r="B3" t="str">
-        <v>6665bdcb30d87f3c08f4bae0</v>
+        <v>669e70ffc6f3441470c2974c</v>
       </c>
       <c r="C3" t="str">
-        <v>121ec0765@gmail.com</v>
+        <v>sai@sai.com</v>
       </c>
       <c r="D3" t="str">
-        <v>Delivered</v>
+        <v>Pending</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Krabby Patty (qty-8) (price-304) (ingredients-bun (1), patty (1), ketchup (1), mustard (1), pickles (1), onions (1), lettuce (1), cheese (1), tomato (1), prawn-4pc (1), pudina (2), pepper (2))
+        <v xml:space="preserve">231 East (qty-1) (price-140) (ingredients-beef (1), smoked bacon (1), chicken (1), veggie burgers (1), brioche bun (1), honey mustard sauce (1), onion chutney (1), pepper sauce (1), avacado (1), onion (2))
 </v>
       </c>
       <c r="F3" t="str">
@@ -527,290 +527,18 @@
         <v>PayPal</v>
       </c>
       <c r="L3" t="str">
-        <v>2432.00</v>
+        <v>140.00</v>
       </c>
       <c r="M3" t="str">
-        <v>2024-06-14T06:26:31.248Z</v>
+        <v>2024-08-01T17:54:48.714Z</v>
       </c>
       <c r="N3" t="str">
-        <v>2024-06-14T06:26:31.253Z</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>666bfa265575893610309717</v>
-      </c>
-      <c r="B4" t="str">
-        <v>66633ef65bcc4a8fe8975da7</v>
-      </c>
-      <c r="C4" t="str">
-        <v>sai@sai.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Processing</v>
-      </c>
-      <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Krabby Patty (qty-7) (price-170) (ingredients-bun (1), patty (1), ketchup (1), mustard (1), pickles (1), onions (1), lettuce (1), cheese (1), tomato (1))
-</v>
-      </c>
-      <c r="F4" t="str">
-        <v>pothu</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Beside Meeseva</v>
-      </c>
-      <c r="H4" t="str">
-        <v>SELECT</v>
-      </c>
-      <c r="I4" t="str">
-        <v>India</v>
-      </c>
-      <c r="J4">
-        <v>533297</v>
-      </c>
-      <c r="K4" t="str">
-        <v>PayPal</v>
-      </c>
-      <c r="L4" t="str">
-        <v>1190.00</v>
-      </c>
-      <c r="M4" t="str">
-        <v>2024-06-14T08:07:02.884Z</v>
-      </c>
-      <c r="N4" t="str">
-        <v>2024-06-14T08:07:02.915Z</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>666c01d02c326265a8b0fdbe</v>
-      </c>
-      <c r="B5" t="str">
-        <v>6665bdcb30d87f3c08f4bae0</v>
-      </c>
-      <c r="C5" t="str">
-        <v>121ec0765@gmail.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Processing</v>
-      </c>
-      <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Tribute Burger (qty-5) (price-261) (ingredients-beef (1), american cheese (1), burger sauce (1), french mustard (1), pickes (1), onion (1), lettuce (1), pudina (1), prawn-4pc (1))
-Crunchy Nacho Burger (qty-6) (price-180) (ingredients-sesame bun (1), salsa (1), cheddar (1), nachos (1), beef (1), tomato (3), pickled onion (1), lettuce (1), jalapeño mayonnaise (1))
-</v>
-      </c>
-      <c r="F5" t="str">
-        <v>sai</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Beside Meeseva</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Rajahmundry</v>
-      </c>
-      <c r="I5" t="str">
-        <v>India</v>
-      </c>
-      <c r="J5">
-        <v>533297</v>
-      </c>
-      <c r="K5" t="str">
-        <v>PayPal</v>
-      </c>
-      <c r="L5" t="str">
-        <v>2385.00</v>
-      </c>
-      <c r="M5" t="str">
-        <v>2024-06-14T08:39:44.902Z</v>
-      </c>
-      <c r="N5" t="str">
-        <v>2024-06-14T08:39:44.927Z</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>666c049bdeca5747bc91ca05</v>
-      </c>
-      <c r="B6" t="str">
-        <v>6669727eac6e2588b0e41e0c</v>
-      </c>
-      <c r="C6" t="str">
-        <v>lekha@sai.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Fat Santa (qty-4) (price-180) (ingredients-chicken thigh (1), champagne ham (1), sage and onion stuffing (1), gravy mash (1), lettuce (1), tomato (3), cranberry sauce (1))
-</v>
-      </c>
-      <c r="F6" t="str">
-        <v>6-74,BESIDE MEESEVA</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Beside Meeseva</v>
-      </c>
-      <c r="H6" t="str">
-        <v>SELECT</v>
-      </c>
-      <c r="I6" t="str">
-        <v>India</v>
-      </c>
-      <c r="J6">
-        <v>533297</v>
-      </c>
-      <c r="K6" t="str">
-        <v>PayPal</v>
-      </c>
-      <c r="L6" t="str">
-        <v>720.00</v>
-      </c>
-      <c r="M6" t="str">
-        <v>2024-06-14T08:51:39.230Z</v>
-      </c>
-      <c r="N6" t="str">
-        <v>2024-06-14T08:51:39.245Z</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>666c0686deca5747bc91ca08</v>
-      </c>
-      <c r="B7" t="str">
-        <v>666bb57c0552905c4418351d</v>
-      </c>
-      <c r="C7" t="str">
-        <v>pravi@pravi.com</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Processing</v>
-      </c>
-      <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Pulled Mooshie-2 (qty-5) (price-206) (ingredients-jackfruit (1), coleslaw (1), gluten free bun (1), ghee (2), pudina (2))
-Tribute Burger (qty-5) (price-273) (ingredients-beef (1), american cheese (1), burger sauce (1), french mustard (1), pickes (1), onion (1), lettuce (1), ghee (2), pudina (1), patty (1))
-</v>
-      </c>
-      <c r="F7" t="str">
-        <v>6-74,BESIDE MEESEVA</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Beside Meeseva</v>
-      </c>
-      <c r="H7" t="str">
-        <v>SELECT</v>
-      </c>
-      <c r="I7" t="str">
-        <v>India</v>
-      </c>
-      <c r="J7">
-        <v>533297</v>
-      </c>
-      <c r="K7" t="str">
-        <v>PayPal</v>
-      </c>
-      <c r="L7" t="str">
-        <v>2395.00</v>
-      </c>
-      <c r="M7" t="str">
-        <v>2024-06-14T08:59:50.021Z</v>
-      </c>
-      <c r="N7" t="str">
-        <v>2024-06-14T08:59:50.031Z</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
-        <v>666c0d2ca0ce2e39d0226ef3</v>
-      </c>
-      <c r="B8" t="str">
-        <v>666bb5230552905c4418351c</v>
-      </c>
-      <c r="C8" t="str">
-        <v>mohan@mohan.com</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Processing</v>
-      </c>
-      <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">Pulled Mooshie (qty-6) (price-150) (ingredients-jackfruit (1), coleslaw (1), gluten free bun (1), ggg (1), whole-wheat-bun (1), pepper (2))
-</v>
-      </c>
-      <c r="F8" t="str">
-        <v>6-74,BESIDE MEESEVA</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Beside Meeseva</v>
-      </c>
-      <c r="H8" t="str">
-        <v>SELECT</v>
-      </c>
-      <c r="I8" t="str">
-        <v>India</v>
-      </c>
-      <c r="J8">
-        <v>533297</v>
-      </c>
-      <c r="K8" t="str">
-        <v>PayPal</v>
-      </c>
-      <c r="L8" t="str">
-        <v>900.00</v>
-      </c>
-      <c r="M8" t="str">
-        <v>2024-06-14T09:28:12.402Z</v>
-      </c>
-      <c r="N8" t="str">
-        <v>2024-06-14T09:28:12.431Z</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str">
-        <v>666c0f26a0ce2e39d0226ef7</v>
-      </c>
-      <c r="B9" t="str">
-        <v>666bb5230552905c4418351c</v>
-      </c>
-      <c r="C9" t="str">
-        <v>mohan@mohan.com</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Processing</v>
-      </c>
-      <c r="E9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Pulled Mooshie-2 (qty-3) (price-368) (ingredients-jackfruit (1), coleslaw (1), gluten free bun (1), ggg (1), prawn-4pc (1), ghee (3))
-</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Murari</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Beside Meeseva</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Rajahmundry</v>
-      </c>
-      <c r="I9" t="str">
-        <v>India</v>
-      </c>
-      <c r="J9">
-        <v>533297</v>
-      </c>
-      <c r="K9" t="str">
-        <v>PayPal</v>
-      </c>
-      <c r="L9" t="str">
-        <v>1104.00</v>
-      </c>
-      <c r="M9" t="str">
-        <v>2024-06-14T09:36:38.107Z</v>
-      </c>
-      <c r="N9" t="str">
-        <v>2024-06-14T09:36:38.115Z</v>
+        <v>2024-08-01T17:54:48.727Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N3"/>
   </ignoredErrors>
 </worksheet>
 </file>